--- a/biology/Zoologie/Hemiergis_decresiensis/Hemiergis_decresiensis.xlsx
+++ b/biology/Zoologie/Hemiergis_decresiensis/Hemiergis_decresiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemiergis decresiensis est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiergis decresiensis est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Méridionale, au Victoria et en Nouvelle-Galles du Sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Méridionale, au Victoria et en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un saurien vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un saurien vivipare.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 septembre 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 septembre 2012) :
 Hemiergis decresiensis continentis Copland, 1946
 Hemiergis decresiensis davisi Copland, 1946
 Hemiergis decresiensis decresiensis (Cuvier, 1829)</t>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Copland, 1946 : Geographic variation in the lizard Hemiergis decresiensis (Fitzinger). Proceedings of the Linnean Society of New South Wales, vol. 70, p. 62-92 (texte intégral).
 Cuvier, 1829 : Le Règne Animal distribué, d'après son organisation, pour servir de base à l'Histoire Naturelle des Animaux et d'introduction à l'Anatomie Comparé. Nouvelle Édition. Les Reptiles. Déterville, Paris, vol. 2, p. 1-406 (texte intégral)</t>
